--- a/data/population_models/models_summary_kriegberg_female_weight95.xlsx
+++ b/data/population_models/models_summary_kriegberg_female_weight95.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8 [4-21]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8 [4-23]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8 [4-22]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10 [5-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10 [6-24]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10 [6-25]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11 [6-25]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10 [6-23]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 [6-24]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10 [6-23]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>8 [4-21]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_kriegberg_female_weight95.xlsx
+++ b/data/population_models/models_summary_kriegberg_female_weight95.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.83 [0.547-0.949]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.24 [0.075-0.518]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.128]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>84 [46-194]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>81.6623863076923</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1836889152358518</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-49.654386</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10 [6-24]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.73 [0.548-0.862]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.3 [0.093-0.651]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>57 [35-135]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>82.89809330769231</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.235707000000005</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09902676317819152</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-48.418678</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.83 [0.545-0.954]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.28 [0.069-0.543]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>82 [46-181]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>83.177047</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.5146606923077</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.08613478205130892</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-51.192033</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10 [6-23]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.65 [0.391-0.868]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.25 [0.089-0.538]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.1 [0.077-0.137]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>66 [40-146]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>84.3708523076923</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.708466000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.047418414685642</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-46.94592</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.65 [0.372-0.871]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.36 [0.128-0.692]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>51 [33-114]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>84.381186</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.718799692307698</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.04717404289148591</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-49.987894</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.8 [0.519-0.94]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.25 [0.06-0.663]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.281]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>68 [36-197]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>84.47165</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.809263692307695</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.04508780462797671</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-49.89743</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>8 [4-25]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.82 [0.286-0.978]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.24 [0.067-0.606]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.129]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>84 [46-200]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>84.714651</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.052264692307702</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.03992933642900449</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-49.654429</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10 [6-25]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.75 [0.552-0.874]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.28 [0.084-0.631]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.234]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>61 [36-148]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>84.980071</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.317684692307694</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03496687911939016</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-49.389009</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8 [4-18]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.73 [0.274-0.951]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.28 [0.067-0.594]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>84 [46-196]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>85.59003166666668</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.927645358974374</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.02577541083985738</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-52.085715</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10 [6-24]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.74 [0.55-0.865]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.29 [0.083-0.649]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.12 [0.071-0.187]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>59 [36-136]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>85.618628</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3.9562416923077</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.02540949193842995</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-48.750452</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.73 [0.542-0.861]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.31 [0.084-0.689]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>57 [35-135]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>85.847545</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.185158692307695</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.02266142868960756</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-48.521535</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.73 [0.549-0.863]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.3 [0.089-0.663]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.186]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>57 [35-134]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>85.923945</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.261558692307702</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.02181208780473643</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-48.445135</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.66 [0.387-0.877]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.31 [0.101-0.652]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.12 [0.056-0.231]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>86.02094766666667</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.35856135897437</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.02077941782685654</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-51.654799</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.82 [0.511-0.953]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.28 [0.051-0.68]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.295]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>71 [36-243]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>86.42020466666668</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.757818358974376</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.01701906981606627</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-51.255542</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>9 [4-30]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.68 [0.401-0.896]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.23 [0.076-0.531]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.143]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>66 [40-143]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>86.541254</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.878867692307693</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01601954921859827</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-47.827826</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.82 [0.516-0.949]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.24 [0.053-0.666]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.12 [0.031-0.383]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>83 [36-349]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>86.84018066666667</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.177794358974367</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.01379555541964187</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-50.835566</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10 [4-44]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.64 [0.377-0.863]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.25 [0.077-0.564]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.1 [0.069-0.14]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>64 [39-142]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>86.850617</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.188230692307698</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0137237554073401</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-47.518462</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>59</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.63 [0.37-0.85]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.4 [0.106-0.757]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.181]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>48 [32-112]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>86.97204166666667</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.309655358974368</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.01291534280350566</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-50.703705</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.76 [0.511-0.906]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.25 [0.056-0.659]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.1 [0.063-0.154]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>64 [36-166]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>87.04659848148148</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.38421217378918</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.01244274300550185</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-41.443963</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>8 [4-21]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.8 [0.601-0.915]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.18 [0.052-0.464]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.141]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>78 [44-177]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>87.1192323076923</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.456845999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.0119989680317264</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-44.19754</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10 [6-22]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.68 [0.269-0.914]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.24 [0.079-0.525]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.1 [0.075-0.138]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>67 [40-147]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>87.22297399999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.560587692307692</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.01139243800701563</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-47.146106</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.65 [0.389-0.869]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.25 [0.084-0.555]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.1 [0.075-0.142]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>66 [40-146]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>87.422478</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.760091692307697</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.01031086096786938</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-46.946602</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.62 [0.324-0.864]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.49 [0.052-0.843]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.12 [0.077-0.197]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>48 [32-112]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>87.47496956521739</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.812583257525091</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.01004376475897656</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-53.79498</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.68 [0.291-0.946]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.32 [0.056-0.842]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.12 [0.056-0.264]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>55 [32-160]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>87.59111666666666</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5.928730358974363</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.009477101013593996</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-50.08463</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>7 [4-20]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.65 [0.368-0.88]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.36 [0.109-0.715]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.188]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>52 [33-116]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>87.63813866666668</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.975752358974376</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.009256883799104445</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-50.037608</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.65 [0.372-0.872]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.36 [0.121-0.703]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>52 [33-115]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>87.64102866666667</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.978642358974369</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.009243517261663874</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-50.034718</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.66 [0.309-0.91]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.35 [0.108-0.711]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.12 [0.074-0.187]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>52 [33-120]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>87.66043966666668</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5.998053358974374</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.00915423825439806</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-50.015307</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.75 [0.554-0.874]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.27 [0.076-0.618]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.231]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>64 [37-152]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>87.66665166666667</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6.004265358974365</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.009125849301247093</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-50.009095</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>8 [5-19]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.85 [0.245-0.982]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.23 [0.065-0.558]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.129]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>86 [47-198]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>87.75777066666667</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6.095384358974371</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.008719409077184301</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-49.917976</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>11 [6-25]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>88</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.74 [0.547-0.874]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.29 [0.076-0.668]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.235]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>61 [36-149]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>88.20757366666668</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.545187358974374</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.006963275414979152</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-49.468173</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>8 [4-19]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.75 [0.552-0.874]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.28 [0.079-0.643]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.239]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>62 [36-151]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>88.26712966666668</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6.604743358974375</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.006758979852319409</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-49.408617</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>8 [4-19]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.74 [0.552-0.867]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.29 [0.079-0.654]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.187]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>59 [36-136]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>88.73760166666668</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.075215358974376</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.005342191538487522</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-48.938145</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.73 [0.545-0.864]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.3 [0.076-0.682]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.12 [0.071-0.187]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>58 [35-137]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>88.80669966666667</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>7.144313358974372</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.005160776069481624</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-48.869046</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.71 [0.271-0.956]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.31 [0.063-0.603]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>79 [44-181]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>88.99667456521739</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7.334288257525088</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.00469312898023784</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-52.273275</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>10 [6-23]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>89</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.65 [0.375-0.871]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.33 [0.084-0.708]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.236]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>54 [34-130]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>89.0723425652174</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.409956257525096</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.004518886075377215</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-52.197607</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.73 [0.542-0.862]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.31 [0.08-0.704]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>56 [34-135]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>7</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>89.10792366666666</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>7.445537358974363</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.004439203503494138</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-48.567823</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.67 [0.386-0.893]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.24 [0.069-0.564]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.09 [0.056-0.141]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>64 [39-140]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>7</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>89.30220366666667</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>7.639817358974369</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.004028261805912323</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-48.373543</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.67 [0.383-0.884]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.31 [0.092-0.665]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.23]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>89.49217956521738</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>7.829793257525083</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.003663236403636003</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-51.77777</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>83</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.68 [0.344-0.921]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.29 [0.05-0.793]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.12 [0.034-0.343]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>61 [34-185]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>89.55540156521739</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>7.893015257525093</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.003549248957975098</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-51.714548</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>8 [4-23]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>63</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.66 [0.329-0.904]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.32 [0.101-0.656]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.231]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>89.60539756521739</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>7.943011257525086</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.003461624612211657</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-51.664552</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>65</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.66 [0.386-0.877]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.32 [0.097-0.665]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.233]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>89.60951856521739</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.947132257525084</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.003454499278094651</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-51.660431</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.68 [0.399-0.897]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.23 [0.071-0.545]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.146]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>67 [40-144]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>89.78593166666667</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8.123545358974368</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.003162841932781782</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-47.889815</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.68 [0.322-0.919]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.23 [0.073-0.535]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.144]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>66 [40-143]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>89.83976266666667</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>8.177376358974371</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.003078847902093868</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-47.835984</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.76 [0.477-0.92]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.25 [0.042-0.714]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.1 [0.052-0.18]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>65 [36-181]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>89.86769930769231</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>8.205313000000004</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.003036140537265362</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-41.449073</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>8 [4-23]</t>
         </is>
       </c>
     </row>
